--- a/8_1st Project/프로젝트관리.xlsx
+++ b/8_1st Project/프로젝트관리.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="271">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Controller 호출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1124,7 +1120,7 @@
   </si>
   <si>
     <t>프로젝트명 일정
-(2020.03.10~2020.03.20)</t>
+(2020.03.10~2019.03.20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1604,7 +1600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,9 +1719,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:O3"/>
     </sheetView>
   </sheetViews>
@@ -2250,41 +2243,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="B2" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2329,32 +2322,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="56"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>10</v>
@@ -2454,7 +2447,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="10"/>
@@ -2475,7 +2468,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="60"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2513,7 +2506,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="51" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="10"/>
@@ -2534,7 +2527,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2572,7 +2565,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2593,7 +2586,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="60"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2652,7 +2645,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2660,8 +2653,8 @@
       <c r="F21" s="6"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -2673,7 +2666,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="62"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2711,7 +2704,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2732,14 +2725,14 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="62"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -2770,7 +2763,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="61" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2791,7 +2784,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="62"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2829,7 +2822,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -2850,14 +2843,14 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -2888,7 +2881,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="61" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -2909,7 +2902,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="62"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2947,8 +2940,8 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="62" t="s">
-        <v>263</v>
+      <c r="C36" s="61" t="s">
+        <v>262</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="6"/>
@@ -2968,7 +2961,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="62"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3027,7 +3020,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -3035,8 +3028,8 @@
       <c r="F40" s="6"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="6"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
       <c r="K40" s="25"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -3048,7 +3041,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="63"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3086,7 +3079,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3107,7 +3100,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="63"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3145,7 +3138,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3166,7 +3159,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="63"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3204,7 +3197,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3225,7 +3218,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="63"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3284,7 +3277,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="60" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -3305,7 +3298,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="61"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3343,7 +3336,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -3364,7 +3357,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="61"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3402,7 +3395,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="60" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -3423,7 +3416,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="61"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3461,7 +3454,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3470,7 +3463,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="38"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -3482,14 +3475,14 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="61"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -3520,7 +3513,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="60" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3529,7 +3522,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
-      <c r="J65" s="6"/>
+      <c r="J65" s="38"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -3541,14 +3534,14 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="61"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -3579,8 +3572,8 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="65" t="s">
-        <v>254</v>
+      <c r="C68" s="64" t="s">
+        <v>253</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
@@ -3600,7 +3593,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="65"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3660,19 +3653,17 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J72" s="40"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="64" t="s">
+      <c r="L72" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="M72" s="64"/>
-      <c r="N72" s="50"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="49"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
@@ -3750,7 +3741,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3761,7 +3752,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3773,7 +3764,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3788,7 +3779,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3978,857 +3969,857 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="42" t="s">
+      <c r="H2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="42" t="s">
+    </row>
+    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="87"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="44" t="s">
+      <c r="H11" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="87"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="87"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="87"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="87"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="87"/>
+      <c r="C16" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="87"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="87"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="87"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="87"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="87"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="88"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="68"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="88"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="45" t="s">
+      <c r="H24" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="68"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="68"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="68"/>
+      <c r="C27" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="68"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="68"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" s="42"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="68"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="42"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="68"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="68"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="84"/>
+      <c r="C42" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="84"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="88"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="G43" s="45"/>
+      <c r="H43" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="84"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="45" t="s">
         <v>113</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="88"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
-      <c r="C16" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="88"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="88"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="45"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="89"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="69"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" s="43"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="69"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="43"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="I30" s="43"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="69"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="G32" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" s="85" t="s">
-        <v>212</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="I34" s="46"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="I39" s="46"/>
-    </row>
-    <row r="40" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="E40" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="I41" s="46"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="85"/>
-      <c r="C42" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="H42" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="85"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="I43" s="46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="85"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="46" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4882,71 +4873,71 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
         <v>255</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="48" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>258</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>260</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
